--- a/Excel/Milano/games_Milano.xlsx
+++ b/Excel/Milano/games_Milano.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45170</v>
+        <v>45176</v>
       </c>
       <c r="B31" t="n">
         <v>2</v>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1370,43 +1370,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45179</v>
-      </c>
-      <c r="B32" t="n">
-        <v>2</v>
-      </c>
-      <c r="C32" t="n">
-        <v>2</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>5-a-side</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Team B</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" t="n">
-        <v>6</v>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Milano/games_Milano.xlsx
+++ b/Excel/Milano/games_Milano.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7-a-side</t>
+          <t>11-a-side</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,7 +506,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -1378,6 +1378,34 @@
       <c r="H31" t="n">
         <v>14</v>
       </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45091</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11-a-side</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>18</v>
+      </c>
+      <c r="G32" t="n">
+        <v>13</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/Milano/games_Milano.xlsx
+++ b/Excel/Milano/games_Milano.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -506,7 +506,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -1381,17 +1381,17 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45091</v>
+        <v>45183</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>11-a-side</t>
+          <t>7-a-side</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1405,7 +1405,9 @@
       <c r="G32" t="n">
         <v>13</v>
       </c>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Excel/Milano/games_Milano.xlsx
+++ b/Excel/Milano/games_Milano.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1349,66 +1349,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45176</v>
-      </c>
-      <c r="B31" t="n">
-        <v>2</v>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>7</v>
-      </c>
-      <c r="G31" t="n">
-        <v>3</v>
-      </c>
-      <c r="H31" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45183</v>
-      </c>
-      <c r="B32" t="n">
-        <v>2</v>
-      </c>
-      <c r="C32" t="n">
-        <v>2</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>7-a-side</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Team A</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>18</v>
-      </c>
-      <c r="G32" t="n">
-        <v>13</v>
-      </c>
-      <c r="H32" t="n">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel/Milano/games_Milano.xlsx
+++ b/Excel/Milano/games_Milano.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1349,6 +1349,36 @@
         <v>9</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>10</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6</v>
+      </c>
+      <c r="H31" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel/Milano/games_Milano.xlsx
+++ b/Excel/Milano/games_Milano.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1379,6 +1379,36 @@
         <v>14</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" t="n">
+        <v>9</v>
+      </c>
+      <c r="H32" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel/Milano/games_Milano.xlsx
+++ b/Excel/Milano/games_Milano.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1409,6 +1409,36 @@
         <v>14</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>6</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel/Milano/games_Milano.xlsx
+++ b/Excel/Milano/games_Milano.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1439,6 +1439,36 @@
         <v>14</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>12</v>
+      </c>
+      <c r="H34" t="n">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel/Milano/games_Milano.xlsx
+++ b/Excel/Milano/games_Milano.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1469,6 +1469,36 @@
         <v>14</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Team A</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>8</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6</v>
+      </c>
+      <c r="H35" t="n">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel/Milano/games_Milano.xlsx
+++ b/Excel/Milano/games_Milano.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1499,6 +1499,36 @@
         <v>16</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>8</v>
+      </c>
+      <c r="G36" t="n">
+        <v>9</v>
+      </c>
+      <c r="H36" t="n">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel/Milano/games_Milano.xlsx
+++ b/Excel/Milano/games_Milano.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1529,6 +1529,36 @@
         <v>16</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7-a-side</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Team B</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="n">
+        <v>10</v>
+      </c>
+      <c r="H37" t="n">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Excel/Milano/games_Milano.xlsx
+++ b/Excel/Milano/games_Milano.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -417,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1411,6 +1411,32 @@
         <v>14</v>
       </c>
     </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39">
+        <v>12</v>
+      </c>
+      <c r="G39">
+        <v>8</v>
+      </c>
+      <c r="H39">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/Milano/games_Milano.xlsx
+++ b/Excel/Milano/games_Milano.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -417,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1437,6 +1437,32 @@
         <v>15</v>
       </c>
     </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
